--- a/data/georgia_census/shida-qartli/qareli/age_dependency.xlsx
+++ b/data/georgia_census/shida-qartli/qareli/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9D9F10E-8CC0-43A0-A9C3-B35C13AFE600}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD4430A3-D21D-4A74-99BB-83A54282CF57}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D21CB9A-DD81-4E4C-AFA1-00B2AB7F985E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0589FA8-FEE5-49BB-8538-079A84E80FCB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{111A5BF5-AB52-47FF-8A52-913EFA059D9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF9355C9-C232-425E-A99E-9EB3CF169478}"/>
 </file>